--- a/python_fcast/time_series.xlsx
+++ b/python_fcast/time_series.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="31">
   <si>
     <t>Model</t>
   </si>
@@ -38,40 +38,28 @@
     <t>SMAPE</t>
   </si>
   <si>
-    <t>R2</t>
-  </si>
-  <si>
     <t>DEP_ENT</t>
   </si>
   <si>
-    <t>ARIMA</t>
+    <t>Polynomial Trend Forecaster</t>
+  </si>
+  <si>
+    <t>DecisionTreeRegressor</t>
+  </si>
+  <si>
+    <t>Seasonal Naive Forecaster</t>
   </si>
   <si>
     <t>STLF</t>
   </si>
   <si>
-    <t>Polynomial Trend Forecaster</t>
-  </si>
-  <si>
-    <t>DecisionTreeRegressor</t>
-  </si>
-  <si>
-    <t>GradientBoostingRegressor</t>
-  </si>
-  <si>
-    <t>Seasonal Naive Forecaster</t>
+    <t>Exponential Smoothing</t>
+  </si>
+  <si>
+    <t>ETS</t>
   </si>
   <si>
     <t>Theta Forecaster</t>
-  </si>
-  <si>
-    <t>Exponential Smoothing</t>
-  </si>
-  <si>
-    <t>OrthogonalMatchingPursuit</t>
-  </si>
-  <si>
-    <t>HuberRegressor</t>
   </si>
   <si>
     <t>160_155</t>
@@ -481,13 +469,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,414 +500,369 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
+      <c r="B2">
+        <v>0.1375</v>
+      </c>
+      <c r="C2">
+        <v>0.1077</v>
+      </c>
+      <c r="D2">
+        <v>186413.2131</v>
+      </c>
+      <c r="E2">
+        <v>186413.2131</v>
+      </c>
+      <c r="F2">
+        <v>0.0593</v>
+      </c>
+      <c r="G2">
+        <v>0.0611</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
-        <v>0.4906</v>
-      </c>
-      <c r="C2">
-        <v>0.4936</v>
-      </c>
-      <c r="D2">
-        <v>679522.6464</v>
-      </c>
-      <c r="E2">
-        <v>886927.2084</v>
-      </c>
-      <c r="F2">
-        <v>0.2171</v>
-      </c>
-      <c r="G2">
-        <v>0.2341</v>
-      </c>
-      <c r="H2">
-        <v>-0.2403</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="B3">
+        <v>2.907</v>
+      </c>
+      <c r="C3">
+        <v>2.2378</v>
+      </c>
+      <c r="D3">
+        <v>2373094.0498</v>
+      </c>
+      <c r="E3">
+        <v>2373094.0498</v>
+      </c>
+      <c r="F3">
+        <v>0.8522</v>
+      </c>
+      <c r="G3">
+        <v>0.5976</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>1.5392</v>
+      </c>
+      <c r="C4">
+        <v>1.1023</v>
+      </c>
+      <c r="D4">
+        <v>1187593.98</v>
+      </c>
+      <c r="E4">
+        <v>1187593.98</v>
+      </c>
+      <c r="F4">
+        <v>0.4076</v>
+      </c>
+      <c r="G4">
+        <v>0.3386</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>2.5093</v>
+      </c>
+      <c r="C5">
+        <v>1.7532</v>
+      </c>
+      <c r="D5">
+        <v>347009.2652</v>
+      </c>
+      <c r="E5">
+        <v>347009.2652</v>
+      </c>
+      <c r="F5">
+        <v>1.5635</v>
+      </c>
+      <c r="G5">
+        <v>0.8774999999999999</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>2.7879</v>
+      </c>
+      <c r="C6">
+        <v>2.139</v>
+      </c>
+      <c r="D6">
+        <v>8816918.014</v>
+      </c>
+      <c r="E6">
+        <v>8816918.014</v>
+      </c>
+      <c r="F6">
+        <v>27.4402</v>
+      </c>
+      <c r="G6">
+        <v>1.8641</v>
+      </c>
+      <c r="H6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0.8836000000000001</v>
+      </c>
+      <c r="C7">
+        <v>0.6895</v>
+      </c>
+      <c r="D7">
+        <v>340503.801</v>
+      </c>
+      <c r="E7">
+        <v>340503.801</v>
+      </c>
+      <c r="F7">
+        <v>0.6867</v>
+      </c>
+      <c r="G7">
+        <v>1.0458</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0.4815</v>
+      </c>
+      <c r="C8">
+        <v>0.3488</v>
+      </c>
+      <c r="D8">
+        <v>418331.9643</v>
+      </c>
+      <c r="E8">
+        <v>418331.9643</v>
+      </c>
+      <c r="F8">
+        <v>0.3581</v>
+      </c>
+      <c r="G8">
+        <v>0.4361</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>0.6052</v>
+      </c>
+      <c r="C9">
+        <v>0.4197</v>
+      </c>
+      <c r="D9">
+        <v>1327395.847</v>
+      </c>
+      <c r="E9">
+        <v>1327395.847</v>
+      </c>
+      <c r="F9">
+        <v>9.3619</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>0.507</v>
+      </c>
+      <c r="C10">
+        <v>0.3561</v>
+      </c>
+      <c r="D10">
+        <v>102546.4098</v>
+      </c>
+      <c r="E10">
+        <v>102546.4098</v>
+      </c>
+      <c r="F10">
+        <v>0.5381</v>
+      </c>
+      <c r="G10">
+        <v>0.7361</v>
+      </c>
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>0.1842</v>
+      </c>
+      <c r="C11">
+        <v>0.1491</v>
+      </c>
+      <c r="D11">
+        <v>168913.1334</v>
+      </c>
+      <c r="E11">
+        <v>168913.1334</v>
+      </c>
+      <c r="F11">
+        <v>0.0489</v>
+      </c>
+      <c r="G11">
+        <v>0.0477</v>
+      </c>
+      <c r="H11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B3">
-        <v>1.7852</v>
-      </c>
-      <c r="C3">
-        <v>1.6121</v>
-      </c>
-      <c r="D3">
-        <v>1158986.3471</v>
-      </c>
-      <c r="E3">
-        <v>1308317.2646</v>
-      </c>
-      <c r="F3">
-        <v>0.2962</v>
-      </c>
-      <c r="G3">
-        <v>0.2811</v>
-      </c>
-      <c r="H3">
-        <v>-0.1022</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>1.2454</v>
-      </c>
-      <c r="C4">
-        <v>0.9711</v>
-      </c>
-      <c r="D4">
-        <v>983248.4435000001</v>
-      </c>
-      <c r="E4">
-        <v>1090493.8546</v>
-      </c>
-      <c r="F4">
-        <v>0.4603</v>
-      </c>
-      <c r="G4">
-        <v>0.3498</v>
-      </c>
-      <c r="H4">
-        <v>-0.5397999999999999</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>2.3282</v>
-      </c>
-      <c r="C5">
-        <v>2.023</v>
-      </c>
-      <c r="D5">
-        <v>295396.9507</v>
-      </c>
-      <c r="E5">
-        <v>381904.239</v>
-      </c>
-      <c r="F5">
-        <v>1.2399</v>
-      </c>
-      <c r="G5">
-        <v>0.6104000000000001</v>
-      </c>
-      <c r="H5">
-        <v>-6.5484</v>
-      </c>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
+      <c r="B12">
+        <v>1.4285</v>
+      </c>
+      <c r="C12">
+        <v>1.1095</v>
+      </c>
+      <c r="D12">
+        <v>2876179.72</v>
+      </c>
+      <c r="E12">
+        <v>2876179.72</v>
+      </c>
+      <c r="F12">
+        <v>0.3503</v>
+      </c>
+      <c r="G12">
+        <v>0.4246</v>
+      </c>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B6">
-        <v>0.9874000000000001</v>
-      </c>
-      <c r="C6">
-        <v>0.9956</v>
-      </c>
-      <c r="D6">
-        <v>3062205.4922</v>
-      </c>
-      <c r="E6">
-        <v>4129627.0519</v>
-      </c>
-      <c r="F6">
-        <v>2.9927</v>
-      </c>
-      <c r="G6">
-        <v>0.6511</v>
-      </c>
-      <c r="H6">
-        <v>-0.2951</v>
-      </c>
-      <c r="I6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
+      <c r="B13">
+        <v>1.7716</v>
+      </c>
+      <c r="C13">
+        <v>1.0423</v>
+      </c>
+      <c r="D13">
+        <v>50195.9293</v>
+      </c>
+      <c r="E13">
+        <v>50195.9293</v>
+      </c>
+      <c r="F13">
+        <v>0.7744</v>
+      </c>
+      <c r="G13">
+        <v>1.2636</v>
+      </c>
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>0.6452</v>
+      </c>
+      <c r="C14">
+        <v>0.512</v>
+      </c>
+      <c r="D14">
+        <v>140682.7922</v>
+      </c>
+      <c r="E14">
+        <v>140682.7922</v>
+      </c>
+      <c r="F14">
+        <v>0.4406</v>
+      </c>
+      <c r="G14">
+        <v>0.5651</v>
+      </c>
+      <c r="H14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B7">
-        <v>0.8442</v>
-      </c>
-      <c r="C7">
-        <v>0.7875</v>
-      </c>
-      <c r="D7">
-        <v>336978.2321</v>
-      </c>
-      <c r="E7">
-        <v>409115.5001</v>
-      </c>
-      <c r="F7">
-        <v>1.8205</v>
-      </c>
-      <c r="G7">
-        <v>0.8527</v>
-      </c>
-      <c r="H7">
-        <v>-2.1085</v>
-      </c>
-      <c r="I7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
-        <v>1.3599</v>
-      </c>
-      <c r="C8">
-        <v>1.1398</v>
-      </c>
-      <c r="D8">
-        <v>1091345.7028</v>
-      </c>
-      <c r="E8">
-        <v>1223683.9154</v>
-      </c>
-      <c r="F8">
-        <v>9.466900000000001</v>
-      </c>
-      <c r="G8">
-        <v>1.1332</v>
-      </c>
-      <c r="H8">
-        <v>-0.2517</v>
-      </c>
-      <c r="I8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
-        <v>0.6297</v>
-      </c>
-      <c r="C9">
-        <v>0.5538999999999999</v>
-      </c>
-      <c r="D9">
-        <v>1405580.6269</v>
-      </c>
-      <c r="E9">
-        <v>1797219.398</v>
-      </c>
-      <c r="F9">
-        <v>4.8083</v>
-      </c>
-      <c r="G9">
-        <v>1.298</v>
-      </c>
-      <c r="H9">
-        <v>-0.0017</v>
-      </c>
-      <c r="I9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10">
-        <v>0.8362000000000001</v>
-      </c>
-      <c r="C10">
-        <v>0.7154</v>
-      </c>
-      <c r="D10">
-        <v>190398.876</v>
-      </c>
-      <c r="E10">
-        <v>222267.264</v>
-      </c>
-      <c r="F10">
-        <v>12.1576</v>
-      </c>
-      <c r="G10">
-        <v>1.4573</v>
-      </c>
-      <c r="H10">
-        <v>-1.589</v>
-      </c>
-      <c r="I10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11">
-        <v>1.261</v>
-      </c>
-      <c r="C11">
-        <v>1.2819</v>
-      </c>
-      <c r="D11">
-        <v>1149537.1462</v>
-      </c>
-      <c r="E11">
-        <v>1471320.3852</v>
-      </c>
-      <c r="F11">
-        <v>0.2645</v>
-      </c>
-      <c r="G11">
-        <v>0.2136</v>
-      </c>
-      <c r="H11">
-        <v>-0.7186</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="B15">
+        <v>3.6533</v>
+      </c>
+      <c r="C15">
+        <v>2.4099</v>
+      </c>
+      <c r="D15">
+        <v>7064.9226</v>
+      </c>
+      <c r="E15">
+        <v>7064.9226</v>
+      </c>
+      <c r="F15">
+        <v>0.677</v>
+      </c>
+      <c r="G15">
+        <v>1.0235</v>
+      </c>
+      <c r="H15" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>1.0697</v>
-      </c>
-      <c r="C12">
-        <v>0.9595</v>
-      </c>
-      <c r="D12">
-        <v>2184746.7435</v>
-      </c>
-      <c r="E12">
-        <v>2556448.6017</v>
-      </c>
-      <c r="F12">
-        <v>0.3025</v>
-      </c>
-      <c r="G12">
-        <v>0.2828</v>
-      </c>
-      <c r="H12">
-        <v>0.3333</v>
-      </c>
-      <c r="I12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>0.9747</v>
-      </c>
-      <c r="C13">
-        <v>0.6647999999999999</v>
-      </c>
-      <c r="D13">
-        <v>28617.7255</v>
-      </c>
-      <c r="E13">
-        <v>34417.2131</v>
-      </c>
-      <c r="F13">
-        <v>16.3968</v>
-      </c>
-      <c r="G13">
-        <v>1.0104</v>
-      </c>
-      <c r="H13">
-        <v>-1.114</v>
-      </c>
-      <c r="I13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14">
-        <v>1.003</v>
-      </c>
-      <c r="C14">
-        <v>1.2533</v>
-      </c>
-      <c r="D14">
-        <v>213400.5213</v>
-      </c>
-      <c r="E14">
-        <v>335694.5175</v>
-      </c>
-      <c r="F14">
-        <v>0.5931</v>
-      </c>
-      <c r="G14">
-        <v>0.37</v>
-      </c>
-      <c r="H14">
-        <v>0.4423</v>
-      </c>
-      <c r="I14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15">
-        <v>0.9435</v>
-      </c>
-      <c r="C15">
-        <v>0.7683</v>
-      </c>
-      <c r="D15">
-        <v>1987.7868</v>
-      </c>
-      <c r="E15">
-        <v>2428.7107</v>
-      </c>
-      <c r="F15">
-        <v>0.5317</v>
-      </c>
-      <c r="G15">
-        <v>0.43</v>
-      </c>
-      <c r="H15">
-        <v>-0.057</v>
-      </c>
-      <c r="I15" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -937,13 +880,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -951,10 +894,10 @@
         <v>44927</v>
       </c>
       <c r="B2">
-        <v>2613249.0689</v>
+        <v>2957715.9569</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -962,10 +905,10 @@
         <v>44958</v>
       </c>
       <c r="B3">
-        <v>2529237.6776</v>
+        <v>2966406.9043</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -973,10 +916,10 @@
         <v>44986</v>
       </c>
       <c r="B4">
-        <v>2524759.0017</v>
+        <v>2975097.8516</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -984,10 +927,10 @@
         <v>45017</v>
       </c>
       <c r="B5">
-        <v>2524520.242</v>
+        <v>2983788.799</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -995,10 +938,10 @@
         <v>45047</v>
       </c>
       <c r="B6">
-        <v>2524507.5136</v>
+        <v>2992479.7463</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1006,10 +949,10 @@
         <v>45078</v>
       </c>
       <c r="B7">
-        <v>2524506.835</v>
+        <v>3001170.6937</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1017,10 +960,10 @@
         <v>45108</v>
       </c>
       <c r="B8">
-        <v>2524506.7989</v>
+        <v>3009861.641</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1028,10 +971,10 @@
         <v>45139</v>
       </c>
       <c r="B9">
-        <v>2524506.7969</v>
+        <v>3018552.5883</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1039,10 +982,10 @@
         <v>45170</v>
       </c>
       <c r="B10">
-        <v>2524506.7968</v>
+        <v>3027243.5357</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1050,10 +993,10 @@
         <v>45200</v>
       </c>
       <c r="B11">
-        <v>2524506.7968</v>
+        <v>3035934.483</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1061,10 +1004,10 @@
         <v>45231</v>
       </c>
       <c r="B12">
-        <v>2524506.7968</v>
+        <v>3044625.4304</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1072,10 +1015,10 @@
         <v>45261</v>
       </c>
       <c r="B13">
-        <v>2524506.7968</v>
+        <v>3053316.3777</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1083,10 +1026,10 @@
         <v>44927</v>
       </c>
       <c r="B14">
-        <v>4357439.2544</v>
+        <v>5157728.8098</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1094,10 +1037,10 @@
         <v>44958</v>
       </c>
       <c r="B15">
-        <v>3639353.2167</v>
+        <v>3793005.3298</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1105,10 +1048,10 @@
         <v>44986</v>
       </c>
       <c r="B16">
-        <v>4369616.6763</v>
+        <v>4923841.6498</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1116,10 +1059,10 @@
         <v>45017</v>
       </c>
       <c r="B17">
-        <v>3651530.6386</v>
+        <v>3975700.5598</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1127,10 +1070,10 @@
         <v>45047</v>
       </c>
       <c r="B18">
-        <v>4381794.0982</v>
+        <v>3448099.5398</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1138,10 +1081,10 @@
         <v>45078</v>
       </c>
       <c r="B19">
-        <v>3663708.0605</v>
+        <v>3692612.7498</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1149,10 +1092,10 @@
         <v>45108</v>
       </c>
       <c r="B20">
-        <v>4393971.5201</v>
+        <v>2783157.6498</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1160,10 +1103,10 @@
         <v>45139</v>
       </c>
       <c r="B21">
-        <v>3675885.4824</v>
+        <v>4075542.4098</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1171,10 +1114,10 @@
         <v>45170</v>
       </c>
       <c r="B22">
-        <v>4406148.942</v>
+        <v>3546249.8598</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1182,10 +1125,10 @@
         <v>45200</v>
       </c>
       <c r="B23">
-        <v>3688062.9043</v>
+        <v>3520882.3598</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1193,10 +1136,10 @@
         <v>45231</v>
       </c>
       <c r="B24">
-        <v>4418326.3639</v>
+        <v>3278166.7198</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1204,10 +1147,10 @@
         <v>45261</v>
       </c>
       <c r="B25">
-        <v>3700240.3262</v>
+        <v>4289034.0198</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1215,10 +1158,10 @@
         <v>44927</v>
       </c>
       <c r="B26">
-        <v>3198329.4397</v>
+        <v>4101338.13</v>
       </c>
       <c r="C26" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1226,10 +1169,10 @@
         <v>44958</v>
       </c>
       <c r="B27">
-        <v>3215890.2982</v>
+        <v>1985988.92</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1237,10 +1180,10 @@
         <v>44986</v>
       </c>
       <c r="B28">
-        <v>3233451.1566</v>
+        <v>2328955.97</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1248,10 +1191,10 @@
         <v>45017</v>
       </c>
       <c r="B29">
-        <v>3251012.0151</v>
+        <v>2240477.51</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1259,10 +1202,10 @@
         <v>45047</v>
       </c>
       <c r="B30">
-        <v>3268572.8735</v>
+        <v>2394403.39</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1270,10 +1213,10 @@
         <v>45078</v>
       </c>
       <c r="B31">
-        <v>3286133.732</v>
+        <v>2275736.56</v>
       </c>
       <c r="C31" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1281,10 +1224,10 @@
         <v>45108</v>
       </c>
       <c r="B32">
-        <v>3303694.5904</v>
+        <v>1713451.84</v>
       </c>
       <c r="C32" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1292,10 +1235,10 @@
         <v>45139</v>
       </c>
       <c r="B33">
-        <v>3321255.4489</v>
+        <v>2497213.4</v>
       </c>
       <c r="C33" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1303,10 +1246,10 @@
         <v>45170</v>
       </c>
       <c r="B34">
-        <v>3338816.3073</v>
+        <v>1953652.61</v>
       </c>
       <c r="C34" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1314,10 +1257,10 @@
         <v>45200</v>
       </c>
       <c r="B35">
-        <v>3356377.1658</v>
+        <v>3745685.68</v>
       </c>
       <c r="C35" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1325,10 +1268,10 @@
         <v>45231</v>
       </c>
       <c r="B36">
-        <v>3373938.0242</v>
+        <v>1359967.69</v>
       </c>
       <c r="C36" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1336,10 +1279,10 @@
         <v>45261</v>
       </c>
       <c r="B37">
-        <v>3391498.8827</v>
+        <v>4112404.03</v>
       </c>
       <c r="C37" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1347,10 +1290,10 @@
         <v>44927</v>
       </c>
       <c r="B38">
-        <v>472337.7442</v>
+        <v>568954.0214</v>
       </c>
       <c r="C38" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1358,10 +1301,10 @@
         <v>44958</v>
       </c>
       <c r="B39">
-        <v>515790.9945</v>
+        <v>174856.1656</v>
       </c>
       <c r="C39" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1369,10 +1312,10 @@
         <v>44986</v>
       </c>
       <c r="B40">
-        <v>372147.006</v>
+        <v>155747.3404</v>
       </c>
       <c r="C40" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1380,10 +1323,10 @@
         <v>45017</v>
       </c>
       <c r="B41">
-        <v>414545.5594</v>
+        <v>196137.7888</v>
       </c>
       <c r="C41" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1391,10 +1334,10 @@
         <v>45047</v>
       </c>
       <c r="B42">
-        <v>1051628.5659</v>
+        <v>349681.7967</v>
       </c>
       <c r="C42" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1402,10 +1345,10 @@
         <v>45078</v>
       </c>
       <c r="B43">
-        <v>509817.3115</v>
+        <v>355996.6569</v>
       </c>
       <c r="C43" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1413,10 +1356,10 @@
         <v>45108</v>
       </c>
       <c r="B44">
-        <v>422923.1508</v>
+        <v>104472.0847</v>
       </c>
       <c r="C44" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1424,10 +1367,10 @@
         <v>45139</v>
       </c>
       <c r="B45">
-        <v>493379.2026</v>
+        <v>153675.6604</v>
       </c>
       <c r="C45" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1435,10 +1378,10 @@
         <v>45170</v>
       </c>
       <c r="B46">
-        <v>628306.6899</v>
+        <v>206363.5687</v>
       </c>
       <c r="C46" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1446,10 +1389,10 @@
         <v>45200</v>
       </c>
       <c r="B47">
-        <v>904607.9327</v>
+        <v>398239.4555</v>
       </c>
       <c r="C47" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1457,10 +1400,10 @@
         <v>45231</v>
       </c>
       <c r="B48">
-        <v>699022.8425</v>
+        <v>119012.4921</v>
       </c>
       <c r="C48" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1468,10 +1411,10 @@
         <v>45261</v>
       </c>
       <c r="B49">
-        <v>696644.3077</v>
+        <v>404055.2539</v>
       </c>
       <c r="C49" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1479,10 +1422,10 @@
         <v>44927</v>
       </c>
       <c r="B50">
-        <v>2827628.579</v>
+        <v>9138231.794</v>
       </c>
       <c r="C50" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1490,10 +1433,10 @@
         <v>44958</v>
       </c>
       <c r="B51">
-        <v>7510480.3758</v>
+        <v>-50534.8296</v>
       </c>
       <c r="C51" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1501,10 +1444,10 @@
         <v>44986</v>
       </c>
       <c r="B52">
-        <v>5868280.488</v>
+        <v>4576820.7341</v>
       </c>
       <c r="C52" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1512,10 +1455,10 @@
         <v>45017</v>
       </c>
       <c r="B53">
-        <v>7701270.202</v>
+        <v>4204632.819</v>
       </c>
       <c r="C53" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1523,10 +1466,10 @@
         <v>45047</v>
       </c>
       <c r="B54">
-        <v>6518638.3677</v>
+        <v>2539873.318</v>
       </c>
       <c r="C54" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1534,10 +1477,10 @@
         <v>45078</v>
       </c>
       <c r="B55">
-        <v>10088216.7754</v>
+        <v>2816302.8076</v>
       </c>
       <c r="C55" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1545,10 +1488,10 @@
         <v>45108</v>
       </c>
       <c r="B56">
-        <v>5380104.5051</v>
+        <v>4549018.2449</v>
       </c>
       <c r="C56" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1556,10 +1499,10 @@
         <v>45139</v>
       </c>
       <c r="B57">
-        <v>2173623.3076</v>
+        <v>10298599.457</v>
       </c>
       <c r="C57" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1567,10 +1510,10 @@
         <v>45170</v>
       </c>
       <c r="B58">
-        <v>6632537.5818</v>
+        <v>2331122.4838</v>
       </c>
       <c r="C58" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1578,10 +1521,10 @@
         <v>45200</v>
       </c>
       <c r="B59">
-        <v>5010579.5353</v>
+        <v>3588404.0291</v>
       </c>
       <c r="C59" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1589,10 +1532,10 @@
         <v>45231</v>
       </c>
       <c r="B60">
-        <v>10948204.2014</v>
+        <v>2494043.1638</v>
       </c>
       <c r="C60" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1600,10 +1543,10 @@
         <v>45261</v>
       </c>
       <c r="B61">
-        <v>5958945.654</v>
+        <v>4658675.6038</v>
       </c>
       <c r="C61" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1611,10 +1554,10 @@
         <v>44927</v>
       </c>
       <c r="B62">
-        <v>430807.806</v>
+        <v>155327.0389</v>
       </c>
       <c r="C62" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1622,10 +1565,10 @@
         <v>44958</v>
       </c>
       <c r="B63">
-        <v>852722.0107</v>
+        <v>569543.6121</v>
       </c>
       <c r="C63" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1633,10 +1576,10 @@
         <v>44986</v>
       </c>
       <c r="B64">
-        <v>396379.3169</v>
+        <v>309175.1522</v>
       </c>
       <c r="C64" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1644,10 +1587,10 @@
         <v>45017</v>
       </c>
       <c r="B65">
-        <v>112851.6024</v>
+        <v>148055.6422</v>
       </c>
       <c r="C65" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1655,10 +1598,10 @@
         <v>45047</v>
       </c>
       <c r="B66">
-        <v>121277.2832</v>
+        <v>528564.9068999999</v>
       </c>
       <c r="C66" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1666,10 +1609,10 @@
         <v>45078</v>
       </c>
       <c r="B67">
-        <v>430807.806</v>
+        <v>161067.2896</v>
       </c>
       <c r="C67" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1677,10 +1620,10 @@
         <v>45108</v>
       </c>
       <c r="B68">
-        <v>852722.0107</v>
+        <v>575283.8628</v>
       </c>
       <c r="C68" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1688,10 +1631,10 @@
         <v>45139</v>
       </c>
       <c r="B69">
-        <v>396379.3169</v>
+        <v>314915.4029</v>
       </c>
       <c r="C69" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1699,10 +1642,10 @@
         <v>45170</v>
       </c>
       <c r="B70">
-        <v>112851.6024</v>
+        <v>153795.893</v>
       </c>
       <c r="C70" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1710,10 +1653,10 @@
         <v>45200</v>
       </c>
       <c r="B71">
-        <v>121277.2832</v>
+        <v>534305.1577</v>
       </c>
       <c r="C71" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1721,10 +1664,10 @@
         <v>45231</v>
       </c>
       <c r="B72">
-        <v>430807.806</v>
+        <v>166807.5404</v>
       </c>
       <c r="C72" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1732,10 +1675,10 @@
         <v>45261</v>
       </c>
       <c r="B73">
-        <v>852722.0107</v>
+        <v>581024.1136</v>
       </c>
       <c r="C73" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1743,10 +1686,10 @@
         <v>44927</v>
       </c>
       <c r="B74">
-        <v>1442796.4682</v>
+        <v>749989.1877</v>
       </c>
       <c r="C74" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1754,10 +1697,10 @@
         <v>44958</v>
       </c>
       <c r="B75">
-        <v>1435237.7607</v>
+        <v>734911.8763</v>
       </c>
       <c r="C75" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1765,10 +1708,10 @@
         <v>44986</v>
       </c>
       <c r="B76">
-        <v>1427679.0531</v>
+        <v>719834.5649999999</v>
       </c>
       <c r="C76" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1776,10 +1719,10 @@
         <v>45017</v>
       </c>
       <c r="B77">
-        <v>1420120.3455</v>
+        <v>704757.2536000001</v>
       </c>
       <c r="C77" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1787,10 +1730,10 @@
         <v>45047</v>
       </c>
       <c r="B78">
-        <v>1412561.6379</v>
+        <v>689679.9423</v>
       </c>
       <c r="C78" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1798,10 +1741,10 @@
         <v>45078</v>
       </c>
       <c r="B79">
-        <v>1405002.9303</v>
+        <v>674602.6309</v>
       </c>
       <c r="C79" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1809,10 +1752,10 @@
         <v>45108</v>
       </c>
       <c r="B80">
-        <v>1397444.2227</v>
+        <v>659525.3196</v>
       </c>
       <c r="C80" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1820,10 +1763,10 @@
         <v>45139</v>
       </c>
       <c r="B81">
-        <v>1389885.5151</v>
+        <v>644448.0082</v>
       </c>
       <c r="C81" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1831,10 +1774,10 @@
         <v>45170</v>
       </c>
       <c r="B82">
-        <v>1382326.8075</v>
+        <v>629370.6969</v>
       </c>
       <c r="C82" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1842,10 +1785,10 @@
         <v>45200</v>
       </c>
       <c r="B83">
-        <v>1374768.0999</v>
+        <v>614293.3855</v>
       </c>
       <c r="C83" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1853,10 +1796,10 @@
         <v>45231</v>
       </c>
       <c r="B84">
-        <v>1367209.3923</v>
+        <v>599216.0742</v>
       </c>
       <c r="C84" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1864,10 +1807,10 @@
         <v>45261</v>
       </c>
       <c r="B85">
-        <v>1359650.6847</v>
+        <v>584138.7628</v>
       </c>
       <c r="C85" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1875,10 +1818,10 @@
         <v>44927</v>
       </c>
       <c r="B86">
-        <v>1153654.7759</v>
+        <v>1185609.097</v>
       </c>
       <c r="C86" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1886,10 +1829,10 @@
         <v>44958</v>
       </c>
       <c r="B87">
-        <v>1154544.2056</v>
+        <v>1186229.3326</v>
       </c>
       <c r="C87" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1897,10 +1840,10 @@
         <v>44986</v>
       </c>
       <c r="B88">
-        <v>1155433.6353</v>
+        <v>1186849.5682</v>
       </c>
       <c r="C88" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1908,10 +1851,10 @@
         <v>45017</v>
       </c>
       <c r="B89">
-        <v>1156323.065</v>
+        <v>1187469.8039</v>
       </c>
       <c r="C89" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1919,10 +1862,10 @@
         <v>45047</v>
       </c>
       <c r="B90">
-        <v>1157212.4947</v>
+        <v>1188090.0395</v>
       </c>
       <c r="C90" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1930,10 +1873,10 @@
         <v>45078</v>
       </c>
       <c r="B91">
-        <v>1158101.9244</v>
+        <v>1188710.2751</v>
       </c>
       <c r="C91" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1941,10 +1884,10 @@
         <v>45108</v>
       </c>
       <c r="B92">
-        <v>1158991.3541</v>
+        <v>1189330.5108</v>
       </c>
       <c r="C92" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1952,10 +1895,10 @@
         <v>45139</v>
       </c>
       <c r="B93">
-        <v>1159880.7838</v>
+        <v>1189950.7464</v>
       </c>
       <c r="C93" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1963,10 +1906,10 @@
         <v>45170</v>
       </c>
       <c r="B94">
-        <v>1160770.2135</v>
+        <v>1190570.982</v>
       </c>
       <c r="C94" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1974,10 +1917,10 @@
         <v>45200</v>
       </c>
       <c r="B95">
-        <v>1161659.6432</v>
+        <v>1191191.2176</v>
       </c>
       <c r="C95" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1985,10 +1928,10 @@
         <v>45231</v>
       </c>
       <c r="B96">
-        <v>1162549.0729</v>
+        <v>1191811.4533</v>
       </c>
       <c r="C96" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1996,10 +1939,10 @@
         <v>45261</v>
       </c>
       <c r="B97">
-        <v>1163438.5026</v>
+        <v>1192431.6889</v>
       </c>
       <c r="C97" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2007,10 +1950,10 @@
         <v>44927</v>
       </c>
       <c r="B98">
-        <v>62454.359</v>
+        <v>88028.07829999999</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2018,10 +1961,10 @@
         <v>44958</v>
       </c>
       <c r="B99">
-        <v>357083.6711</v>
+        <v>-1222.9506</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2029,10 +1972,10 @@
         <v>44986</v>
       </c>
       <c r="B100">
-        <v>91362.84600000001</v>
+        <v>95613.5961</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2040,10 +1983,10 @@
         <v>45017</v>
       </c>
       <c r="B101">
-        <v>348294.1831</v>
+        <v>6362.5672</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2051,10 +1994,10 @@
         <v>45047</v>
       </c>
       <c r="B102">
-        <v>101826.9171</v>
+        <v>103199.1139</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2062,10 +2005,10 @@
         <v>45078</v>
       </c>
       <c r="B103">
-        <v>344822.9612</v>
+        <v>13948.085</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2073,10 +2016,10 @@
         <v>45108</v>
       </c>
       <c r="B104">
-        <v>105472.8941</v>
+        <v>110784.6317</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2084,10 +2027,10 @@
         <v>45139</v>
       </c>
       <c r="B105">
-        <v>343317.6697</v>
+        <v>21533.6028</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2095,10 +2038,10 @@
         <v>45170</v>
       </c>
       <c r="B106">
-        <v>106598.5198</v>
+        <v>118370.1495</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2106,10 +2049,10 @@
         <v>45200</v>
       </c>
       <c r="B107">
-        <v>342539.0967</v>
+        <v>29119.1206</v>
       </c>
       <c r="C107" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2117,10 +2060,10 @@
         <v>45231</v>
       </c>
       <c r="B108">
-        <v>106792.4818</v>
+        <v>125955.6673</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2128,10 +2071,10 @@
         <v>45261</v>
       </c>
       <c r="B109">
-        <v>342029.1597</v>
+        <v>36704.6384</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2139,10 +2082,10 @@
         <v>44927</v>
       </c>
       <c r="B110">
-        <v>6298221.7185</v>
+        <v>3626376.6134</v>
       </c>
       <c r="C110" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2150,10 +2093,10 @@
         <v>44958</v>
       </c>
       <c r="B111">
-        <v>6338847.4697</v>
+        <v>3270477.4685</v>
       </c>
       <c r="C111" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2161,10 +2104,10 @@
         <v>44986</v>
       </c>
       <c r="B112">
-        <v>6294533.0921</v>
+        <v>3615097.7767</v>
       </c>
       <c r="C112" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2172,10 +2115,10 @@
         <v>45017</v>
       </c>
       <c r="B113">
-        <v>6335133.9629</v>
+        <v>3259198.6318</v>
       </c>
       <c r="C113" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2183,10 +2126,10 @@
         <v>45047</v>
       </c>
       <c r="B114">
-        <v>6290844.4656</v>
+        <v>3603818.94</v>
       </c>
       <c r="C114" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2194,10 +2137,10 @@
         <v>45078</v>
       </c>
       <c r="B115">
-        <v>6331420.4561</v>
+        <v>3247919.7951</v>
       </c>
       <c r="C115" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2205,10 +2148,10 @@
         <v>45108</v>
       </c>
       <c r="B116">
-        <v>6287155.8392</v>
+        <v>3592540.1033</v>
       </c>
       <c r="C116" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2216,10 +2159,10 @@
         <v>45139</v>
       </c>
       <c r="B117">
-        <v>6327706.9492</v>
+        <v>3236640.9584</v>
       </c>
       <c r="C117" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2227,10 +2170,10 @@
         <v>45170</v>
       </c>
       <c r="B118">
-        <v>6283467.2127</v>
+        <v>3581261.2667</v>
       </c>
       <c r="C118" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2238,10 +2181,10 @@
         <v>45200</v>
       </c>
       <c r="B119">
-        <v>6323993.4424</v>
+        <v>3225362.1218</v>
       </c>
       <c r="C119" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2249,10 +2192,10 @@
         <v>45231</v>
       </c>
       <c r="B120">
-        <v>6279778.5862</v>
+        <v>3569982.43</v>
       </c>
       <c r="C120" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2260,10 +2203,10 @@
         <v>45261</v>
       </c>
       <c r="B121">
-        <v>6320279.9356</v>
+        <v>3214083.2851</v>
       </c>
       <c r="C121" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2271,10 +2214,10 @@
         <v>44927</v>
       </c>
       <c r="B122">
-        <v>8551918.85</v>
+        <v>5335129.6</v>
       </c>
       <c r="C122" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2282,10 +2225,10 @@
         <v>44958</v>
       </c>
       <c r="B123">
-        <v>10005964.56</v>
+        <v>5831587.19</v>
       </c>
       <c r="C123" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2293,10 +2236,10 @@
         <v>44986</v>
       </c>
       <c r="B124">
-        <v>12711989.36</v>
+        <v>5428107.02</v>
       </c>
       <c r="C124" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2304,10 +2247,10 @@
         <v>45017</v>
       </c>
       <c r="B125">
-        <v>9250506.15</v>
+        <v>5226201.46</v>
       </c>
       <c r="C125" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2315,10 +2258,10 @@
         <v>45047</v>
       </c>
       <c r="B126">
-        <v>4057064.98</v>
+        <v>5017651.62</v>
       </c>
       <c r="C126" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2326,10 +2269,10 @@
         <v>45078</v>
       </c>
       <c r="B127">
-        <v>8855749.99</v>
+        <v>9282788.74</v>
       </c>
       <c r="C127" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2337,10 +2280,10 @@
         <v>45108</v>
       </c>
       <c r="B128">
-        <v>7448546.53</v>
+        <v>5694082.47</v>
       </c>
       <c r="C128" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2348,10 +2291,10 @@
         <v>45139</v>
       </c>
       <c r="B129">
-        <v>7649544.54</v>
+        <v>5023800.99</v>
       </c>
       <c r="C129" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2359,10 +2302,10 @@
         <v>45170</v>
       </c>
       <c r="B130">
-        <v>9341502.949999999</v>
+        <v>6357307.19</v>
       </c>
       <c r="C130" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2370,10 +2313,10 @@
         <v>45200</v>
       </c>
       <c r="B131">
-        <v>10640466.38</v>
+        <v>12275967.7</v>
       </c>
       <c r="C131" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2381,10 +2324,10 @@
         <v>45231</v>
       </c>
       <c r="B132">
-        <v>7391166.09</v>
+        <v>12020860.95</v>
       </c>
       <c r="C132" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2392,10 +2335,10 @@
         <v>45261</v>
       </c>
       <c r="B133">
-        <v>6556439</v>
+        <v>13245284.92</v>
       </c>
       <c r="C133" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2403,10 +2346,10 @@
         <v>44927</v>
       </c>
       <c r="B134">
-        <v>6328.4172</v>
+        <v>14626.7227</v>
       </c>
       <c r="C134" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2414,10 +2357,10 @@
         <v>44958</v>
       </c>
       <c r="B135">
-        <v>70409.8852</v>
+        <v>12412.8465</v>
       </c>
       <c r="C135" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2425,10 +2368,10 @@
         <v>44986</v>
       </c>
       <c r="B136">
-        <v>53775.5115</v>
+        <v>10198.9703</v>
       </c>
       <c r="C136" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2436,10 +2379,10 @@
         <v>45017</v>
       </c>
       <c r="B137">
-        <v>29277.5303</v>
+        <v>7985.0942</v>
       </c>
       <c r="C137" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2447,10 +2390,10 @@
         <v>45047</v>
       </c>
       <c r="B138">
-        <v>21860.6941</v>
+        <v>5771.218</v>
       </c>
       <c r="C138" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2458,10 +2401,10 @@
         <v>45078</v>
       </c>
       <c r="B139">
-        <v>8076.6348</v>
+        <v>3557.3418</v>
       </c>
       <c r="C139" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2469,10 +2412,10 @@
         <v>45108</v>
       </c>
       <c r="B140">
-        <v>62884.7706</v>
+        <v>1343.4656</v>
       </c>
       <c r="C140" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2480,10 +2423,10 @@
         <v>45139</v>
       </c>
       <c r="B141">
-        <v>72978.605</v>
+        <v>-870.4105</v>
       </c>
       <c r="C141" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2491,10 +2434,10 @@
         <v>45170</v>
       </c>
       <c r="B142">
-        <v>34021.2289</v>
+        <v>-3084.2867</v>
       </c>
       <c r="C142" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2502,10 +2445,10 @@
         <v>45200</v>
       </c>
       <c r="B143">
-        <v>41740.7552</v>
+        <v>-5298.1629</v>
       </c>
       <c r="C143" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2513,10 +2456,10 @@
         <v>45231</v>
       </c>
       <c r="B144">
-        <v>94830.1134</v>
+        <v>-7512.039</v>
       </c>
       <c r="C144" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2524,10 +2467,10 @@
         <v>45261</v>
       </c>
       <c r="B145">
-        <v>-4881.2483</v>
+        <v>-9725.915199999999</v>
       </c>
       <c r="C145" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2535,10 +2478,10 @@
         <v>44927</v>
       </c>
       <c r="B146">
-        <v>894035.1724</v>
+        <v>178601.5023</v>
       </c>
       <c r="C146" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2546,10 +2489,10 @@
         <v>44958</v>
       </c>
       <c r="B147">
-        <v>360309.5342</v>
+        <v>249055.066</v>
       </c>
       <c r="C147" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2557,10 +2500,10 @@
         <v>44986</v>
       </c>
       <c r="B148">
-        <v>1161025.5446</v>
+        <v>140565.4808</v>
       </c>
       <c r="C148" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2568,10 +2511,10 @@
         <v>45017</v>
       </c>
       <c r="B149">
-        <v>682780.8198000001</v>
+        <v>267384.4142</v>
       </c>
       <c r="C149" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2579,10 +2522,10 @@
         <v>45047</v>
       </c>
       <c r="B150">
-        <v>212074.4556</v>
+        <v>356319.0628</v>
       </c>
       <c r="C150" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2590,10 +2533,10 @@
         <v>45078</v>
       </c>
       <c r="B151">
-        <v>586931.4213</v>
+        <v>118717.9729</v>
       </c>
       <c r="C151" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2601,10 +2544,10 @@
         <v>45108</v>
       </c>
       <c r="B152">
-        <v>286094.9922</v>
+        <v>503123.8505</v>
       </c>
       <c r="C152" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2612,10 +2555,10 @@
         <v>45139</v>
       </c>
       <c r="B153">
-        <v>269700.2049</v>
+        <v>292576.6031</v>
       </c>
       <c r="C153" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2623,10 +2566,10 @@
         <v>45170</v>
       </c>
       <c r="B154">
-        <v>349741.0623</v>
+        <v>1240827.379</v>
       </c>
       <c r="C154" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2634,10 +2577,10 @@
         <v>45200</v>
       </c>
       <c r="B155">
-        <v>210529.3994</v>
+        <v>841606.1217</v>
       </c>
       <c r="C155" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2645,10 +2588,10 @@
         <v>45231</v>
       </c>
       <c r="B156">
-        <v>814603.1090000001</v>
+        <v>1282521.2018</v>
       </c>
       <c r="C156" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2656,10 +2599,10 @@
         <v>45261</v>
       </c>
       <c r="B157">
-        <v>336177.1701</v>
+        <v>964907.1862</v>
       </c>
       <c r="C157" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2667,10 +2610,10 @@
         <v>44927</v>
       </c>
       <c r="B158">
-        <v>4791.5194</v>
+        <v>3370.3974</v>
       </c>
       <c r="C158" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2678,10 +2621,10 @@
         <v>44958</v>
       </c>
       <c r="B159">
-        <v>4810.6509</v>
+        <v>3369.2588</v>
       </c>
       <c r="C159" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2689,10 +2632,10 @@
         <v>44986</v>
       </c>
       <c r="B160">
-        <v>4829.7823</v>
+        <v>3368.1203</v>
       </c>
       <c r="C160" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2700,10 +2643,10 @@
         <v>45017</v>
       </c>
       <c r="B161">
-        <v>4848.9137</v>
+        <v>3366.9817</v>
       </c>
       <c r="C161" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2711,10 +2654,10 @@
         <v>45047</v>
       </c>
       <c r="B162">
-        <v>4868.0452</v>
+        <v>3365.8431</v>
       </c>
       <c r="C162" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2722,10 +2665,10 @@
         <v>45078</v>
       </c>
       <c r="B163">
-        <v>4887.1766</v>
+        <v>3364.7045</v>
       </c>
       <c r="C163" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2733,10 +2676,10 @@
         <v>45108</v>
       </c>
       <c r="B164">
-        <v>4906.308</v>
+        <v>3363.566</v>
       </c>
       <c r="C164" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2744,10 +2687,10 @@
         <v>45139</v>
       </c>
       <c r="B165">
-        <v>4925.4395</v>
+        <v>3362.4274</v>
       </c>
       <c r="C165" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2755,10 +2698,10 @@
         <v>45170</v>
       </c>
       <c r="B166">
-        <v>4944.5709</v>
+        <v>3361.2888</v>
       </c>
       <c r="C166" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2766,10 +2709,10 @@
         <v>45200</v>
       </c>
       <c r="B167">
-        <v>4963.7024</v>
+        <v>3360.1502</v>
       </c>
       <c r="C167" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2777,10 +2720,10 @@
         <v>45231</v>
       </c>
       <c r="B168">
-        <v>4982.8338</v>
+        <v>3359.0117</v>
       </c>
       <c r="C168" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2788,10 +2731,10 @@
         <v>45261</v>
       </c>
       <c r="B169">
-        <v>5001.9652</v>
+        <v>3357.8731</v>
       </c>
       <c r="C169" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
